--- a/mcmaster_excel/Metric_Stainless_Steel_Pan_Head_Torx_Screws.xlsx
+++ b/mcmaster_excel/Metric_Stainless_Steel_Pan_Head_Torx_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L79"/>
+  <dimension ref="A1:L72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,115 +434,171 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg., mm</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia., mm</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HeadHt., mm</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>SpecificationsMet</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr"/>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+          <t>Lg., mm</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Threading</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>HeadDia., mm</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HeadHt., mm</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>DriveSize</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>TensileStrength, psi</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>SpecificationsMet</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Pkg.</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>T6</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>ISO 14583</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>90362A135</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>$6.47</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>M2 × 0.4 mm</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>1.6</t>
@@ -570,21 +626,29 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>90362A135</t>
+          <t>90362A136</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>$6.47</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -624,21 +688,29 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>90362A136</t>
+          <t>90362A137</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -678,21 +750,29 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>90362A137</t>
+          <t>90362A138</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5.45</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -732,21 +812,29 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>90362A138</t>
+          <t>90362A139</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -786,21 +874,29 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>90362A139</t>
+          <t>90362A141</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>6.47</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+          <t>13.79</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -810,17 +906,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -840,39 +936,91 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>90362A141</t>
+          <t>90362A142</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>13.79</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>T8</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>ISO 14583</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>90362A143</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
           <t>M2.5 × 0.45 mm</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -912,21 +1060,29 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>90362A142</t>
+          <t>90362A144</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>7.19</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -966,33 +1122,41 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>90362A143</t>
+          <t>90362A145</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>7.57</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="D13" t="inlineStr">
         <is>
           <t>2.1</t>
@@ -1020,21 +1184,29 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>90362A144</t>
+          <t>90362A146</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>5.94</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1074,21 +1246,29 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>90362A145</t>
+          <t>90362A147</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>7.22</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1128,21 +1308,29 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>90362A146</t>
+          <t>90362A148</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>6.47</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1182,21 +1370,29 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>90362A147</t>
+          <t>90362A149</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>6.60</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1206,17 +1402,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>T10</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1236,21 +1432,29 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>90362A148</t>
+          <t>90362A151</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1260,17 +1464,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>T10</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1290,39 +1494,91 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>90362A149</t>
+          <t>90362A111</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>7.85</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>5.6</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.4</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>T10</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>ISO 14583</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>90362A112</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
           <t>M3 × 0.5 mm</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1362,21 +1618,29 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>90362A151</t>
+          <t>90362A113</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>10.45</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+          <t>10.89</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1416,21 +1680,29 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>90362A111</t>
+          <t>90362A114</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>7.18</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1470,21 +1742,29 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>90362A112</t>
+          <t>90362A115</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>5.93</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1524,21 +1804,29 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>90362A113</t>
+          <t>90362A116</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>10.89</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+          <t>10.36</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1573,26 +1861,34 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>90362A114</t>
+          <t>90362A153</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>11.19</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+          <t>14.16</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1632,21 +1928,29 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>90362A115</t>
+          <t>90362A152</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>6.77</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+          <t>11.99</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1686,21 +1990,29 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>90362A116</t>
+          <t>90362A154</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>10.36</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1740,21 +2052,29 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>90362A153</t>
+          <t>90362A155</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>14.16</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1794,21 +2114,29 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>90362A152</t>
+          <t>90362A156</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>11.99</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+          <t>11.28</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1848,21 +2176,29 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>90362A154</t>
+          <t>90362A157</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>11.18</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+          <t>12.77</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1872,17 +2208,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>T10</t>
+          <t>T15</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1897,26 +2233,34 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>90362A155</t>
+          <t>90362A158</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>8.78</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+          <t>14.45</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>M3.5 × 0.6 mm</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1926,17 +2270,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>T10</t>
+          <t>T15</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1956,21 +2300,29 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>90362A156</t>
+          <t>90362A159</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>11.28</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+          <t>11.75</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>M3.5 × 0.6 mm</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1980,17 +2332,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>T10</t>
+          <t>T15</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2010,39 +2362,91 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>90362A157</t>
+          <t>90362A161</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>12.77</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>M3.5 × 0.6 mm</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.6</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>T15</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>ISO 14583</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>90362A162</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
           <t>M3.5 × 0.6 mm</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2077,26 +2481,34 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>90362A158</t>
+          <t>90362A163</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>14.45</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>M3.5 × 0.6 mm</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2131,26 +2543,34 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>90362A159</t>
+          <t>90362A164</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>11.75</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>M3.5 × 0.6 mm</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2185,26 +2605,34 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>90362A161</t>
+          <t>90362A165</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>9.28</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>M3.5 × 0.6 mm</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2239,26 +2667,34 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>90362A162</t>
+          <t>90362A166</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>11.64</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+          <t>10.73</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>M3.5 × 0.6 mm</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2268,17 +2704,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>T15</t>
+          <t>T20</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2293,26 +2729,34 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>90362A163</t>
+          <t>90362A117</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>8.24</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+          <t>15.03</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2322,17 +2766,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>T15</t>
+          <t>T20</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2347,26 +2791,34 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>90362A164</t>
+          <t>90362A118</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>8.34</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+          <t>13.97</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2376,17 +2828,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>T15</t>
+          <t>T20</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2401,26 +2853,34 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>90362A165</t>
+          <t>90362A119</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>7.88</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+          <t>14.45</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2430,17 +2890,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>T15</t>
+          <t>T20</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2455,44 +2915,96 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>90362A166</t>
+          <t>90362A121</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>10.73</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+          <t>12.85</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>T20</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>ISO 14583</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>90362A122</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
           <t>M4 × 0.7 mm</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2527,38 +3039,46 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>90362A117</t>
+          <t>90362A167</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>15.03</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+          <t>14.16</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
       <c r="D44" t="inlineStr">
         <is>
           <t>3.1</t>
@@ -2581,26 +3101,34 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>90362A118</t>
+          <t>90362A168</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>13.97</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+          <t>12.29</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2635,26 +3163,34 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>90362A119</t>
+          <t>90362A169</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>14.45</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+          <t>12.99</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2689,26 +3225,34 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>90362A121</t>
+          <t>90362A171</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>12.85</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+          <t>14.65</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2748,21 +3292,29 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>90362A122</t>
+          <t>90362A172</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>10.10</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+          <t>16.22</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2797,80 +3349,96 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>90362A167</t>
+          <t>90362A173</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>14.16</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+          <t>13.07</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>T20</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>ISO 14583</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>3.1</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>T20</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>ISO 14583</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>90362A168</t>
+          <t>90362A174</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>12.29</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+          <t>15.97</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2880,17 +3448,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9.5</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>T20</t>
+          <t>T25</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2910,21 +3478,29 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>90362A169</t>
+          <t>90362A175</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>12.99</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2934,17 +3510,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9.5</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>T20</t>
+          <t>T25</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2964,21 +3540,29 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>90362A171</t>
+          <t>90362A123</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>14.65</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+          <t>11.98</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2988,17 +3572,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9.5</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>T20</t>
+          <t>T25</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3018,21 +3602,29 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>90362A172</t>
+          <t>90362A124</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>16.22</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+          <t>12.61</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3042,17 +3634,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9.5</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>T20</t>
+          <t>T25</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3067,98 +3659,158 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>90362A173</t>
+          <t>90362A125</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>13.07</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+          <t>13.52</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>9.5</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>T25</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>ISO 14583</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
           <t>50</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>3.1</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>T20</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>ISO 14583</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>90362A174</t>
+          <t>90362A126</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>15.97</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+          <t>15.43</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>9.5</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>T25</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>ISO 14583</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>90362A176</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>16.16</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
           <t>M5 × 0.8 mm</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3193,26 +3845,34 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>90362A175</t>
+          <t>90362A177</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>10.44</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3247,26 +3907,34 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>90362A123</t>
+          <t>90362A178</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>11.98</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3301,26 +3969,34 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>90362A124</t>
+          <t>90362A179</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>12.61</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+          <t>11.97</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3355,26 +4031,34 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>90362A125</t>
+          <t>90362A181</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>13.52</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3409,26 +4093,34 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>90362A126</t>
+          <t>90362A182</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>15.43</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+          <t>12.20</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3468,75 +4160,91 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>90362A176</t>
+          <t>90362A183</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>16.16</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+          <t>15.90</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>T30</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>ISO 14583</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>9.5</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>3.7</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>T25</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>ISO 14583</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>90362A177</t>
+          <t>90362A184</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>9.79</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+          <t>16.47</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3546,17 +4254,17 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>9.5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>T25</t>
+          <t>T30</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3576,21 +4284,29 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>90362A178</t>
+          <t>90362A127</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>9.15</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+          <t>11.98</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3600,17 +4316,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>9.5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>T25</t>
+          <t>T30</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3630,21 +4346,29 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>90362A179</t>
+          <t>90362A128</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>11.97</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+          <t>11.73</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3654,17 +4378,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>9.5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>T25</t>
+          <t>T30</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3684,21 +4408,29 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>90362A181</t>
+          <t>90362A129</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>11.19</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+          <t>12.53</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3708,17 +4440,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>9.5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>T25</t>
+          <t>T30</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3738,21 +4470,29 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>90362A182</t>
+          <t>90362A131</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>12.20</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3762,17 +4502,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>9.5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>T25</t>
+          <t>T30</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3792,39 +4532,91 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>90362A183</t>
+          <t>90362A132</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>15.90</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>T30</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>ISO 14583</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>90362A185</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
           <t>M6 × 1 mm</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3859,92 +4651,108 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>90362A184</t>
+          <t>90362A186</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>16.47</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>T30</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>ISO 14583</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>4.6</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>T30</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>ISO 14583</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>90362A127</t>
+          <t>90362A187</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>11.98</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
       <c r="D71" t="inlineStr">
         <is>
           <t>4.6</t>
@@ -3967,26 +4775,34 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>90362A128</t>
+          <t>90362A188</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>11.73</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -4021,399 +4837,29 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>90362A129</t>
+          <t>90362A189</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>12.53</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>4.6</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>T30</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>ISO 14583</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>90362A131</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>11.15</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>4.6</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>T30</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>ISO 14583</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>90362A132</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>12.51</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>4.6</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>T30</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>ISO 14583</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>90362A185</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>12.28</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>4.6</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>T30</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>ISO 14583</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>90362A186</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>8.65</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>4.6</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>T30</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>ISO 14583</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>90362A187</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>8.03</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>4.6</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>T30</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>ISO 14583</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>90362A188</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>8.68</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>4.6</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>T30</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>ISO 14583</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>90362A189</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
           <t>9.41</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
